--- a/Tester Results/SIGNIFICANT_SEX_SPLIT_REACTION.xlsx
+++ b/Tester Results/SIGNIFICANT_SEX_SPLIT_REACTION.xlsx
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>574.5</v>
+        <v>576.5</v>
       </c>
       <c r="D2" t="n">
-        <v>4.731507720099267e-08</v>
+        <v>5.150353814706688e-08</v>
       </c>
     </row>
     <row r="3">
@@ -485,28 +485,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2104</v>
+        <v>2136</v>
       </c>
       <c r="D3" t="n">
-        <v>6.944883517617799e-05</v>
+        <v>2.880647972041379e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>May20</t>
+          <t>June26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1113</v>
+        <v>1147.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03027169445723122</v>
+        <v>0.04662743739202063</v>
       </c>
     </row>
     <row r="5">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>917.5</v>
+        <v>1020</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0006175820052564793</v>
+        <v>0.004727145605948223</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/SIGNIFICANT_SEX_SPLIT_REACTION.xlsx
+++ b/Tester Results/SIGNIFICANT_SEX_SPLIT_REACTION.xlsx
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>576.5</v>
+        <v>574.5</v>
       </c>
       <c r="D2" t="n">
-        <v>5.150353814706688e-08</v>
+        <v>4.731507720099267e-08</v>
       </c>
     </row>
     <row r="3">
@@ -485,28 +485,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2136</v>
+        <v>2104</v>
       </c>
       <c r="D3" t="n">
-        <v>2.880647972041379e-05</v>
+        <v>6.944883517617799e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>June26</t>
+          <t>May20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1147.5</v>
+        <v>1113</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04662743739202063</v>
+        <v>0.03027169445723122</v>
       </c>
     </row>
     <row r="5">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1020</v>
+        <v>917.5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004727145605948223</v>
+        <v>0.0006175820052564793</v>
       </c>
     </row>
   </sheetData>
